--- a/ARCHIVE/deployment/Omaha_Cal_Info_CE04OSSM_00003.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CE04OSSM_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaesm/Documents/dev/repos/najascutellatus/asset-management/ARCHIVE/deployment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="51060" yWindow="5940" windowWidth="51200" windowHeight="28340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,20 @@
     <sheet name="ACS258_CC_taarray" sheetId="3" r:id="rId3"/>
     <sheet name="ACS258_CC_tcarray" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="169">
   <si>
     <t>Mooring OOIBARCODE</t>
   </si>
@@ -477,6 +490,54 @@
   <si>
     <t>0005</t>
   </si>
+  <si>
+    <t>CGMCE-04OSSM-00003</t>
+  </si>
+  <si>
+    <t>CGINS-HYDGNA-49835</t>
+  </si>
+  <si>
+    <t>CGINS-HYDGNA-49850</t>
+  </si>
+  <si>
+    <t>CGINS-METBKA-00018</t>
+  </si>
+  <si>
+    <t>CGINS-MOPAKA-11838</t>
+  </si>
+  <si>
+    <t>CGINS-VELPTA-12737</t>
+  </si>
+  <si>
+    <t>CGINS-WAVSSA-05301</t>
+  </si>
+  <si>
+    <t>CGINS-ADCPTC-22114</t>
+  </si>
+  <si>
+    <t>CGINS-CTDBPC-50006</t>
+  </si>
+  <si>
+    <t>CGINS-DOSTAD-00482</t>
+  </si>
+  <si>
+    <t>CGINS-FLORTD-01303</t>
+  </si>
+  <si>
+    <t>CGINS-OPTAAD-00258</t>
+  </si>
+  <si>
+    <t>CGINS-PHSEND-00118</t>
+  </si>
+  <si>
+    <t>CGINS-SPKIRB-00249</t>
+  </si>
+  <si>
+    <t>CGINS-VELPTA-11787</t>
+  </si>
+  <si>
+    <t>CGINS-PCO2AA-35256</t>
+  </si>
 </sst>
 </file>
 
@@ -911,7 +972,7 @@
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2093,31 +2154,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
-    <col min="15" max="256" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
+    <col min="15" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2157,8 +2218,10 @@
       <c r="M1" s="28"/>
       <c r="N1" s="29"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
@@ -2195,7 +2258,7 @@
         <v>-124.95587</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -2211,7 +2274,7 @@
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2227,7 +2290,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2243,7 +2306,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2259,7 +2322,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -2275,7 +2338,7 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2291,7 +2354,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2307,7 +2370,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2334,27 +2397,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV181"/>
+  <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="39.42578125" style="16" customWidth="1"/>
-    <col min="10" max="256" width="8.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.83203125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="31.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2389,7 +2459,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2406,7 +2476,7 @@
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -2423,18 +2493,22 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C4" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D4" s="15">
         <v>3</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="31" t="s">
+        <v>154</v>
+      </c>
       <c r="F4" s="40" t="s">
         <v>126</v>
       </c>
@@ -2450,18 +2524,22 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C5" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D5" s="15">
         <v>3</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="31" t="s">
+        <v>155</v>
+      </c>
       <c r="F5" s="13" t="s">
         <v>127</v>
       </c>
@@ -2477,9 +2555,9 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2494,18 +2572,22 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C7" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="15">
         <v>3</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="F7" s="41" t="s">
         <v>128</v>
       </c>
@@ -2523,18 +2605,22 @@
       <c r="N7" s="13"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C8" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="F8" s="41" t="s">
         <v>128</v>
       </c>
@@ -2552,18 +2638,22 @@
       <c r="N8" s="13"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C9" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D9" s="15">
         <v>3</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="F9" s="41" t="s">
         <v>128</v>
       </c>
@@ -2581,18 +2671,22 @@
       <c r="N9" s="13"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C10" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D10" s="15">
         <v>3</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="F10" s="41" t="s">
         <v>128</v>
       </c>
@@ -2610,18 +2704,22 @@
       <c r="N10" s="13"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C11" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D11" s="15">
         <v>3</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="F11" s="41" t="s">
         <v>128</v>
       </c>
@@ -2639,18 +2737,22 @@
       <c r="N11" s="13"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C12" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D12" s="15">
         <v>3</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="F12" s="41" t="s">
         <v>128</v>
       </c>
@@ -2668,18 +2770,22 @@
       <c r="N12" s="13"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C13" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="15">
         <v>3</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="F13" s="41" t="s">
         <v>128</v>
       </c>
@@ -2699,18 +2805,22 @@
       <c r="N13" s="13"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C14" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="15">
         <v>3</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="F14" s="41" t="s">
         <v>128</v>
       </c>
@@ -2730,18 +2840,22 @@
       <c r="N14" s="13"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C15" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D15" s="15">
         <v>3</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="F15" s="41" t="s">
         <v>128</v>
       </c>
@@ -2761,9 +2875,9 @@
       <c r="N15" s="13"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="26"/>
       <c r="D16" s="15"/>
       <c r="E16" s="32"/>
@@ -2778,18 +2892,22 @@
       <c r="N16" s="13"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C17" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="15">
         <v>3</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="F17" s="19" t="s">
         <v>129</v>
       </c>
@@ -2805,9 +2923,9 @@
       <c r="N17" s="13"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="26"/>
       <c r="D18" s="15"/>
       <c r="E18" s="32"/>
@@ -2822,18 +2940,22 @@
       <c r="N18" s="13"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C19" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D19" s="15">
         <v>3</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="F19" s="19" t="s">
         <v>130</v>
       </c>
@@ -2849,9 +2971,9 @@
       <c r="N19" s="13"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="32"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="26"/>
       <c r="D20" s="15"/>
       <c r="E20" s="32"/>
@@ -2866,18 +2988,22 @@
       <c r="N20" s="13"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C21" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D21" s="15">
         <v>3</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="F21" s="36" t="s">
         <v>131</v>
       </c>
@@ -2895,18 +3021,22 @@
       <c r="N21" s="13"/>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C22" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D22" s="15">
         <v>3</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="F22" s="36" t="s">
         <v>131</v>
       </c>
@@ -2924,9 +3054,9 @@
       <c r="N22" s="13"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="26"/>
       <c r="D23" s="13"/>
       <c r="E23" s="15"/>
@@ -2941,18 +3071,22 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C24" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D24" s="15">
         <v>3</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="20" t="s">
+        <v>159</v>
+      </c>
       <c r="F24" s="19" t="s">
         <v>132</v>
       </c>
@@ -2970,18 +3104,22 @@
       <c r="N24" s="13"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C25" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D25" s="15">
         <v>3</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="20" t="s">
+        <v>159</v>
+      </c>
       <c r="F25" s="19" t="s">
         <v>132</v>
       </c>
@@ -2999,9 +3137,9 @@
       <c r="N25" s="13"/>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
-      <c r="B26" s="32"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="26"/>
       <c r="D26" s="15"/>
       <c r="E26" s="32"/>
@@ -3016,18 +3154,22 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
     </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C27" s="37" t="s">
         <v>124</v>
       </c>
       <c r="D27" s="35">
         <v>3</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="38" t="s">
+        <v>160</v>
+      </c>
       <c r="F27" s="35">
         <v>22114</v>
       </c>
@@ -3047,18 +3189,22 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
     </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C28" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D28" s="15">
         <v>3</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="38" t="s">
+        <v>160</v>
+      </c>
       <c r="F28" s="15">
         <v>22114</v>
       </c>
@@ -3076,18 +3222,22 @@
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C29" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D29" s="15">
         <v>3</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="38" t="s">
+        <v>160</v>
+      </c>
       <c r="F29" s="15">
         <v>22114</v>
       </c>
@@ -3105,18 +3255,22 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
     </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C30" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="15">
         <v>3</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="38" t="s">
+        <v>160</v>
+      </c>
       <c r="F30" s="15">
         <v>22114</v>
       </c>
@@ -3134,18 +3288,22 @@
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
     </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C31" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D31" s="15">
         <v>3</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="38" t="s">
+        <v>160</v>
+      </c>
       <c r="F31" s="15">
         <v>22114</v>
       </c>
@@ -3163,18 +3321,22 @@
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C32" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D32" s="15">
         <v>3</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="38" t="s">
+        <v>160</v>
+      </c>
       <c r="F32" s="15">
         <v>22114</v>
       </c>
@@ -3192,18 +3354,22 @@
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
     </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C33" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D33" s="15">
         <v>3</v>
       </c>
-      <c r="E33" s="20"/>
+      <c r="E33" s="38" t="s">
+        <v>160</v>
+      </c>
       <c r="F33" s="15">
         <v>22114</v>
       </c>
@@ -3221,9 +3387,9 @@
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
     </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
-      <c r="B34" s="32"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="26"/>
       <c r="D34" s="15"/>
       <c r="E34" s="32"/>
@@ -3238,18 +3404,22 @@
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C35" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D35" s="15">
         <v>3</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F35" s="41" t="s">
         <v>133</v>
       </c>
@@ -3267,18 +3437,22 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C36" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D36" s="15">
         <v>3</v>
       </c>
-      <c r="E36" s="20"/>
+      <c r="E36" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F36" s="41" t="s">
         <v>133</v>
       </c>
@@ -3296,18 +3470,22 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C37" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D37" s="15">
         <v>3</v>
       </c>
-      <c r="E37" s="20"/>
+      <c r="E37" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F37" s="41" t="s">
         <v>133</v>
       </c>
@@ -3325,18 +3503,22 @@
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C38" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D38" s="15">
         <v>3</v>
       </c>
-      <c r="E38" s="20"/>
+      <c r="E38" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F38" s="41" t="s">
         <v>133</v>
       </c>
@@ -3354,18 +3536,22 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C39" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D39" s="15">
         <v>3</v>
       </c>
-      <c r="E39" s="20"/>
+      <c r="E39" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F39" s="41" t="s">
         <v>133</v>
       </c>
@@ -3383,18 +3569,22 @@
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
     </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C40" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D40" s="15">
         <v>3</v>
       </c>
-      <c r="E40" s="20"/>
+      <c r="E40" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F40" s="41" t="s">
         <v>133</v>
       </c>
@@ -3412,18 +3602,22 @@
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C41" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D41" s="15">
         <v>3</v>
       </c>
-      <c r="E41" s="20"/>
+      <c r="E41" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F41" s="41" t="s">
         <v>133</v>
       </c>
@@ -3441,18 +3635,22 @@
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C42" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D42" s="15">
         <v>3</v>
       </c>
-      <c r="E42" s="20"/>
+      <c r="E42" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F42" s="41" t="s">
         <v>133</v>
       </c>
@@ -3470,18 +3668,22 @@
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="20"/>
+      <c r="B43" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C43" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D43" s="15">
         <v>3</v>
       </c>
-      <c r="E43" s="20"/>
+      <c r="E43" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F43" s="41" t="s">
         <v>133</v>
       </c>
@@ -3499,18 +3701,22 @@
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C44" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D44" s="15">
         <v>3</v>
       </c>
-      <c r="E44" s="20"/>
+      <c r="E44" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F44" s="41" t="s">
         <v>133</v>
       </c>
@@ -3528,18 +3734,22 @@
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
     </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C45" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D45" s="15">
         <v>3</v>
       </c>
-      <c r="E45" s="20"/>
+      <c r="E45" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F45" s="41" t="s">
         <v>133</v>
       </c>
@@ -3557,18 +3767,22 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C46" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D46" s="15">
         <v>3</v>
       </c>
-      <c r="E46" s="20"/>
+      <c r="E46" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F46" s="41" t="s">
         <v>133</v>
       </c>
@@ -3586,18 +3800,22 @@
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C47" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D47" s="15">
         <v>3</v>
       </c>
-      <c r="E47" s="20"/>
+      <c r="E47" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F47" s="41" t="s">
         <v>133</v>
       </c>
@@ -3615,18 +3833,22 @@
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C48" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D48" s="15">
         <v>3</v>
       </c>
-      <c r="E48" s="20"/>
+      <c r="E48" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F48" s="41" t="s">
         <v>133</v>
       </c>
@@ -3644,18 +3866,22 @@
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
     </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C49" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D49" s="15">
         <v>3</v>
       </c>
-      <c r="E49" s="20"/>
+      <c r="E49" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F49" s="41" t="s">
         <v>133</v>
       </c>
@@ -3673,18 +3899,22 @@
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
     </row>
-    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C50" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D50" s="15">
         <v>3</v>
       </c>
-      <c r="E50" s="20"/>
+      <c r="E50" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F50" s="41" t="s">
         <v>133</v>
       </c>
@@ -3702,18 +3932,22 @@
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
     </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C51" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D51" s="15">
         <v>3</v>
       </c>
-      <c r="E51" s="20"/>
+      <c r="E51" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F51" s="41" t="s">
         <v>133</v>
       </c>
@@ -3731,18 +3965,22 @@
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
     </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C52" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D52" s="15">
         <v>3</v>
       </c>
-      <c r="E52" s="20"/>
+      <c r="E52" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F52" s="41" t="s">
         <v>133</v>
       </c>
@@ -3760,18 +3998,22 @@
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
     </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C53" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D53" s="15">
         <v>3</v>
       </c>
-      <c r="E53" s="20"/>
+      <c r="E53" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F53" s="41" t="s">
         <v>133</v>
       </c>
@@ -3789,18 +4031,22 @@
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
     </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C54" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D54" s="15">
         <v>3</v>
       </c>
-      <c r="E54" s="20"/>
+      <c r="E54" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F54" s="41" t="s">
         <v>133</v>
       </c>
@@ -3818,18 +4064,22 @@
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
     </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C55" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D55" s="15">
         <v>3</v>
       </c>
-      <c r="E55" s="20"/>
+      <c r="E55" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F55" s="41" t="s">
         <v>133</v>
       </c>
@@ -3847,18 +4097,22 @@
       <c r="N55" s="13"/>
       <c r="O55" s="13"/>
     </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C56" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D56" s="15">
         <v>3</v>
       </c>
-      <c r="E56" s="20"/>
+      <c r="E56" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F56" s="41" t="s">
         <v>133</v>
       </c>
@@ -3876,18 +4130,22 @@
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
     </row>
-    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="20"/>
+      <c r="B57" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C57" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D57" s="15">
         <v>3</v>
       </c>
-      <c r="E57" s="20"/>
+      <c r="E57" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F57" s="41" t="s">
         <v>133</v>
       </c>
@@ -3905,18 +4163,22 @@
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
     </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="20"/>
+      <c r="B58" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C58" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D58" s="15">
         <v>3</v>
       </c>
-      <c r="E58" s="20"/>
+      <c r="E58" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="F58" s="41" t="s">
         <v>133</v>
       </c>
@@ -3934,9 +4196,9 @@
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
     </row>
-    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="26"/>
       <c r="D59" s="13"/>
       <c r="E59" s="15"/>
@@ -3951,18 +4213,22 @@
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
     </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="20"/>
+      <c r="B60" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C60" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D60" s="15">
         <v>3</v>
       </c>
-      <c r="E60" s="20"/>
+      <c r="E60" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="F60" s="15">
         <v>482</v>
       </c>
@@ -3980,18 +4246,22 @@
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
     </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C61" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D61" s="15">
         <v>3</v>
       </c>
-      <c r="E61" s="20"/>
+      <c r="E61" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="F61" s="15">
         <v>482</v>
       </c>
@@ -4009,18 +4279,22 @@
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
     </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C62" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D62" s="15">
         <v>3</v>
       </c>
-      <c r="E62" s="20"/>
+      <c r="E62" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="F62" s="15">
         <v>482</v>
       </c>
@@ -4038,18 +4312,22 @@
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
     </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C63" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D63" s="15">
         <v>3</v>
       </c>
-      <c r="E63" s="20"/>
+      <c r="E63" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="F63" s="19" t="s">
         <v>134</v>
       </c>
@@ -4067,9 +4345,9 @@
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
     </row>
-    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13"/>
-      <c r="B64" s="32"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="26"/>
       <c r="D64" s="15"/>
       <c r="E64" s="32"/>
@@ -4084,18 +4362,22 @@
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
     </row>
-    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C65" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D65" s="15">
         <v>3</v>
       </c>
-      <c r="E65" s="20"/>
+      <c r="E65" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="F65" s="15">
         <v>1303</v>
       </c>
@@ -4113,18 +4395,22 @@
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
     </row>
-    <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C66" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D66" s="15">
         <v>3</v>
       </c>
-      <c r="E66" s="20"/>
+      <c r="E66" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="F66" s="15">
         <v>1303</v>
       </c>
@@ -4142,18 +4428,22 @@
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
     </row>
-    <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C67" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D67" s="15">
         <v>3</v>
       </c>
-      <c r="E67" s="20"/>
+      <c r="E67" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="F67" s="15">
         <v>1303</v>
       </c>
@@ -4171,18 +4461,22 @@
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
     </row>
-    <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C68" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D68" s="15">
         <v>3</v>
       </c>
-      <c r="E68" s="20"/>
+      <c r="E68" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="F68" s="15">
         <v>1303</v>
       </c>
@@ -4200,18 +4494,22 @@
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
     </row>
-    <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C69" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D69" s="15">
         <v>3</v>
       </c>
-      <c r="E69" s="20"/>
+      <c r="E69" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="F69" s="15">
         <v>1303</v>
       </c>
@@ -4229,18 +4527,22 @@
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
     </row>
-    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C70" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D70" s="15">
         <v>3</v>
       </c>
-      <c r="E70" s="20"/>
+      <c r="E70" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="F70" s="15">
         <v>1303</v>
       </c>
@@ -4258,18 +4560,22 @@
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
     </row>
-    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C71" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D71" s="15">
         <v>3</v>
       </c>
-      <c r="E71" s="20"/>
+      <c r="E71" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="F71" s="15">
         <v>1303</v>
       </c>
@@ -4289,18 +4595,22 @@
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
     </row>
-    <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C72" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D72" s="15">
         <v>3</v>
       </c>
-      <c r="E72" s="20"/>
+      <c r="E72" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="F72" s="15">
         <v>1303</v>
       </c>
@@ -4320,18 +4630,22 @@
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
     </row>
-    <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C73" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D73" s="15">
         <v>3</v>
       </c>
-      <c r="E73" s="20"/>
+      <c r="E73" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="F73" s="15">
         <v>1303</v>
       </c>
@@ -4351,18 +4665,22 @@
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
     </row>
-    <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C74" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D74" s="15">
         <v>3</v>
       </c>
-      <c r="E74" s="20"/>
+      <c r="E74" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="F74" s="15">
         <v>1303</v>
       </c>
@@ -4382,9 +4700,9 @@
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
     </row>
-    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13"/>
-      <c r="B75" s="32"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="26"/>
       <c r="D75" s="15"/>
       <c r="E75" s="32"/>
@@ -4399,9 +4717,9 @@
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
     </row>
-    <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="44"/>
       <c r="D76" s="44"/>
       <c r="E76" s="44"/>
@@ -4428,9 +4746,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
       <c r="E77" s="44"/>
@@ -4457,9 +4775,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
       <c r="E78" s="44"/>
@@ -4484,9 +4802,9 @@
       <c r="P78" s="23"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="44"/>
       <c r="D79" s="44"/>
       <c r="E79" s="44"/>
@@ -4511,9 +4829,9 @@
       <c r="P79" s="23"/>
       <c r="Q79" s="15"/>
     </row>
-    <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="44"/>
       <c r="D80" s="44"/>
       <c r="E80" s="44"/>
@@ -4538,9 +4856,9 @@
       <c r="P80" s="23"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="44"/>
       <c r="D81" s="44"/>
       <c r="E81" s="44"/>
@@ -4565,9 +4883,9 @@
       <c r="P81" s="23"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
+      <c r="B82" s="6"/>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
       <c r="E82" s="44"/>
@@ -4592,9 +4910,9 @@
       <c r="P82" s="23"/>
       <c r="Q82" s="15"/>
     </row>
-    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13"/>
-      <c r="B83" s="32"/>
+      <c r="B83" s="6"/>
       <c r="C83" s="26"/>
       <c r="D83" s="15"/>
       <c r="E83" s="32"/>
@@ -4609,18 +4927,22 @@
       <c r="N83" s="13"/>
       <c r="O83" s="13"/>
     </row>
-    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C84" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D84" s="15">
         <v>3</v>
       </c>
-      <c r="E84" s="20"/>
+      <c r="E84" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="F84" s="41" t="s">
         <v>137</v>
       </c>
@@ -4638,18 +4960,22 @@
       <c r="N84" s="13"/>
       <c r="O84" s="13"/>
     </row>
-    <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C85" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D85" s="15">
         <v>3</v>
       </c>
-      <c r="E85" s="20"/>
+      <c r="E85" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="F85" s="41" t="s">
         <v>137</v>
       </c>
@@ -4667,18 +4993,22 @@
       <c r="N85" s="13"/>
       <c r="O85" s="13"/>
     </row>
-    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="20"/>
+      <c r="B86" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C86" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D86" s="15">
         <v>3</v>
       </c>
-      <c r="E86" s="20"/>
+      <c r="E86" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="F86" s="41" t="s">
         <v>137</v>
       </c>
@@ -4696,18 +5026,22 @@
       <c r="N86" s="13"/>
       <c r="O86" s="13"/>
     </row>
-    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C87" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D87" s="15">
         <v>3</v>
       </c>
-      <c r="E87" s="20"/>
+      <c r="E87" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="F87" s="41" t="s">
         <v>137</v>
       </c>
@@ -4725,18 +5059,22 @@
       <c r="N87" s="13"/>
       <c r="O87" s="13"/>
     </row>
-    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="20"/>
+      <c r="B88" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C88" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D88" s="15">
         <v>3</v>
       </c>
-      <c r="E88" s="20"/>
+      <c r="E88" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="F88" s="41" t="s">
         <v>137</v>
       </c>
@@ -4754,18 +5092,22 @@
       <c r="N88" s="13"/>
       <c r="O88" s="13"/>
     </row>
-    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="20"/>
+      <c r="B89" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C89" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D89" s="15">
         <v>3</v>
       </c>
-      <c r="E89" s="20"/>
+      <c r="E89" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="F89" s="41" t="s">
         <v>137</v>
       </c>
@@ -4783,18 +5125,22 @@
       <c r="N89" s="13"/>
       <c r="O89" s="13"/>
     </row>
-    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C90" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D90" s="15">
         <v>3</v>
       </c>
-      <c r="E90" s="20"/>
+      <c r="E90" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="F90" s="41" t="s">
         <v>137</v>
       </c>
@@ -4812,18 +5158,22 @@
       <c r="N90" s="13"/>
       <c r="O90" s="13"/>
     </row>
-    <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C91" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D91" s="24">
         <v>3</v>
       </c>
-      <c r="E91" s="20"/>
+      <c r="E91" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="F91" s="41" t="s">
         <v>137</v>
       </c>
@@ -4841,9 +5191,9 @@
       <c r="N91" s="13"/>
       <c r="O91" s="13"/>
     </row>
-    <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13"/>
-      <c r="B92" s="32"/>
+      <c r="B92" s="6"/>
       <c r="C92" s="26"/>
       <c r="D92" s="15"/>
       <c r="E92" s="32"/>
@@ -4858,18 +5208,22 @@
       <c r="N92" s="13"/>
       <c r="O92" s="13"/>
     </row>
-    <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="20"/>
+      <c r="B93" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C93" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D93" s="15">
         <v>3</v>
       </c>
-      <c r="E93" s="20"/>
+      <c r="E93" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="F93" s="41" t="s">
         <v>145</v>
       </c>
@@ -4887,18 +5241,22 @@
       <c r="N93" s="13"/>
       <c r="O93" s="13"/>
     </row>
-    <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="20"/>
+      <c r="B94" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C94" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D94" s="15">
         <v>3</v>
       </c>
-      <c r="E94" s="20"/>
+      <c r="E94" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="F94" s="41" t="s">
         <v>145</v>
       </c>
@@ -4916,18 +5274,22 @@
       <c r="N94" s="13"/>
       <c r="O94" s="13"/>
     </row>
-    <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C95" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D95" s="15">
         <v>3</v>
       </c>
-      <c r="E95" s="20"/>
+      <c r="E95" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="F95" s="41" t="s">
         <v>145</v>
       </c>
@@ -4945,18 +5307,22 @@
       <c r="N95" s="13"/>
       <c r="O95" s="13"/>
     </row>
-    <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B96" s="20"/>
+      <c r="B96" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C96" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D96" s="15">
         <v>3</v>
       </c>
-      <c r="E96" s="20"/>
+      <c r="E96" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="F96" s="41" t="s">
         <v>145</v>
       </c>
@@ -4974,18 +5340,22 @@
       <c r="N96" s="13"/>
       <c r="O96" s="13"/>
     </row>
-    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="20"/>
+      <c r="B97" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C97" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D97" s="15">
         <v>3</v>
       </c>
-      <c r="E97" s="20"/>
+      <c r="E97" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="F97" s="41" t="s">
         <v>145</v>
       </c>
@@ -5003,18 +5373,22 @@
       <c r="N97" s="13"/>
       <c r="O97" s="13"/>
     </row>
-    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="20"/>
+      <c r="B98" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C98" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D98" s="15">
         <v>3</v>
       </c>
-      <c r="E98" s="20"/>
+      <c r="E98" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="F98" s="41" t="s">
         <v>145</v>
       </c>
@@ -5032,18 +5406,22 @@
       <c r="N98" s="13"/>
       <c r="O98" s="13"/>
     </row>
-    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="38"/>
+      <c r="B99" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C99" s="37" t="s">
         <v>124</v>
       </c>
       <c r="D99" s="35">
         <v>3</v>
       </c>
-      <c r="E99" s="38"/>
+      <c r="E99" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="F99" s="48" t="s">
         <v>145</v>
       </c>
@@ -5063,9 +5441,9 @@
       <c r="N99" s="13"/>
       <c r="O99" s="13"/>
     </row>
-    <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
-      <c r="B100" s="32"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="26"/>
       <c r="D100" s="15"/>
       <c r="E100" s="32"/>
@@ -5080,18 +5458,22 @@
       <c r="N100" s="13"/>
       <c r="O100" s="13"/>
     </row>
-    <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C101" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D101" s="15">
         <v>3</v>
       </c>
-      <c r="E101" s="20"/>
+      <c r="E101" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="F101" s="15">
         <v>249</v>
       </c>
@@ -5109,18 +5491,22 @@
       <c r="N101" s="13"/>
       <c r="O101" s="13"/>
     </row>
-    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="20"/>
+      <c r="B102" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C102" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D102" s="15">
         <v>3</v>
       </c>
-      <c r="E102" s="20"/>
+      <c r="E102" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="F102" s="15">
         <v>249</v>
       </c>
@@ -5138,18 +5524,22 @@
       <c r="N102" s="13"/>
       <c r="O102" s="13"/>
     </row>
-    <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="20"/>
+      <c r="B103" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C103" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D103" s="15">
         <v>3</v>
       </c>
-      <c r="E103" s="20"/>
+      <c r="E103" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="F103" s="15">
         <v>249</v>
       </c>
@@ -5167,9 +5557,9 @@
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
     </row>
-    <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
-      <c r="B104" s="32"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="26"/>
       <c r="D104" s="15"/>
       <c r="E104" s="32"/>
@@ -5184,18 +5574,22 @@
       <c r="N104" s="13"/>
       <c r="O104" s="13"/>
     </row>
-    <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="20"/>
+      <c r="B105" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C105" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D105" s="15">
         <v>3</v>
       </c>
-      <c r="E105" s="20"/>
+      <c r="E105" s="20" t="s">
+        <v>167</v>
+      </c>
       <c r="F105" s="36" t="s">
         <v>149</v>
       </c>
@@ -5213,18 +5607,22 @@
       <c r="N105" s="13"/>
       <c r="O105" s="13"/>
     </row>
-    <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="20"/>
+      <c r="B106" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C106" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D106" s="15">
         <v>3</v>
       </c>
-      <c r="E106" s="20"/>
+      <c r="E106" s="20" t="s">
+        <v>167</v>
+      </c>
       <c r="F106" s="36" t="s">
         <v>149</v>
       </c>
@@ -5242,9 +5640,9 @@
       <c r="N106" s="13"/>
       <c r="O106" s="13"/>
     </row>
-    <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13"/>
-      <c r="B107" s="32"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="26"/>
       <c r="D107" s="15"/>
       <c r="E107" s="32"/>
@@ -5259,9 +5657,9 @@
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
     </row>
-    <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="15"/>
@@ -5276,9 +5674,9 @@
       <c r="N108" s="13"/>
       <c r="O108" s="13"/>
     </row>
-    <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13"/>
-      <c r="B109" s="32"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="32"/>
@@ -5293,9 +5691,9 @@
       <c r="N109" s="15"/>
       <c r="O109" s="13"/>
     </row>
-    <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
-      <c r="B110" s="32"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="32"/>
@@ -5310,11 +5708,13 @@
       <c r="N110" s="15"/>
       <c r="O110" s="13"/>
     </row>
-    <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="20"/>
+      <c r="B111" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C111" s="36" t="s">
         <v>124</v>
       </c>
@@ -5339,11 +5739,13 @@
       <c r="N111" s="15"/>
       <c r="O111" s="13"/>
     </row>
-    <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="20"/>
+      <c r="B112" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C112" s="36" t="s">
         <v>124</v>
       </c>
@@ -5368,11 +5770,13 @@
       <c r="N112" s="15"/>
       <c r="O112" s="13"/>
     </row>
-    <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="20"/>
+      <c r="B113" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C113" s="36" t="s">
         <v>124</v>
       </c>
@@ -5397,9 +5801,9 @@
       <c r="N113" s="15"/>
       <c r="O113" s="13"/>
     </row>
-    <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="26"/>
       <c r="D114" s="13"/>
       <c r="E114" s="15"/>
@@ -5414,11 +5818,13 @@
       <c r="N114" s="15"/>
       <c r="O114" s="13"/>
     </row>
-    <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B115" s="20"/>
+      <c r="B115" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C115" s="36" t="s">
         <v>124</v>
       </c>
@@ -5443,11 +5849,13 @@
       <c r="N115" s="15"/>
       <c r="O115" s="13"/>
     </row>
-    <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B116" s="20"/>
+      <c r="B116" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C116" s="36" t="s">
         <v>124</v>
       </c>
@@ -5472,11 +5880,13 @@
       <c r="N116" s="13"/>
       <c r="O116" s="13"/>
     </row>
-    <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="20"/>
+      <c r="B117" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C117" s="36" t="s">
         <v>124</v>
       </c>
@@ -5501,7 +5911,7 @@
       <c r="N117" s="13"/>
       <c r="O117" s="13"/>
     </row>
-    <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13"/>
       <c r="B118" s="32"/>
       <c r="C118" s="13"/>
@@ -5518,7 +5928,7 @@
       <c r="N118" s="13"/>
       <c r="O118" s="13"/>
     </row>
-    <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13"/>
       <c r="B119" s="32"/>
       <c r="C119" s="13"/>
@@ -5535,7 +5945,7 @@
       <c r="N119" s="13"/>
       <c r="O119" s="13"/>
     </row>
-    <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13"/>
       <c r="B120" s="32"/>
       <c r="C120" s="15"/>
@@ -5552,7 +5962,7 @@
       <c r="N120" s="13"/>
       <c r="O120" s="13"/>
     </row>
-    <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13"/>
       <c r="B121" s="32"/>
       <c r="C121" s="15"/>
@@ -5569,7 +5979,7 @@
       <c r="N121" s="13"/>
       <c r="O121" s="13"/>
     </row>
-    <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
       <c r="B122" s="32"/>
       <c r="C122" s="15"/>
@@ -5586,7 +5996,7 @@
       <c r="N122" s="13"/>
       <c r="O122" s="13"/>
     </row>
-    <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13"/>
       <c r="B123" s="32"/>
       <c r="C123" s="15"/>
@@ -5603,7 +6013,7 @@
       <c r="N123" s="13"/>
       <c r="O123" s="13"/>
     </row>
-    <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13"/>
       <c r="B124" s="32"/>
       <c r="C124" s="13"/>
@@ -5620,7 +6030,7 @@
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
     </row>
-    <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
       <c r="B125" s="32"/>
       <c r="C125" s="15"/>
@@ -5637,7 +6047,7 @@
       <c r="N125" s="13"/>
       <c r="O125" s="13"/>
     </row>
-    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
       <c r="B126" s="32"/>
       <c r="C126" s="15"/>
@@ -5654,7 +6064,7 @@
       <c r="N126" s="13"/>
       <c r="O126" s="13"/>
     </row>
-    <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13"/>
       <c r="B127" s="32"/>
       <c r="C127" s="15"/>
@@ -5671,7 +6081,7 @@
       <c r="N127" s="13"/>
       <c r="O127" s="13"/>
     </row>
-    <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13"/>
       <c r="B128" s="32"/>
       <c r="C128" s="15"/>
@@ -5688,7 +6098,7 @@
       <c r="N128" s="13"/>
       <c r="O128" s="13"/>
     </row>
-    <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13"/>
       <c r="B129" s="32"/>
       <c r="C129" s="15"/>
@@ -5705,7 +6115,7 @@
       <c r="N129" s="13"/>
       <c r="O129" s="13"/>
     </row>
-    <row r="130" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13"/>
       <c r="B130" s="32"/>
       <c r="C130" s="15"/>
@@ -5722,7 +6132,7 @@
       <c r="N130" s="13"/>
       <c r="O130" s="13"/>
     </row>
-    <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13"/>
       <c r="B131" s="32"/>
       <c r="C131" s="15"/>
@@ -5739,7 +6149,7 @@
       <c r="N131" s="13"/>
       <c r="O131" s="13"/>
     </row>
-    <row r="132" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13"/>
       <c r="B132" s="32"/>
       <c r="C132" s="15"/>
@@ -5756,7 +6166,7 @@
       <c r="N132" s="13"/>
       <c r="O132" s="13"/>
     </row>
-    <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13"/>
       <c r="B133" s="32"/>
       <c r="C133" s="15"/>
@@ -5773,7 +6183,7 @@
       <c r="N133" s="13"/>
       <c r="O133" s="13"/>
     </row>
-    <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13"/>
       <c r="B134" s="32"/>
       <c r="C134" s="15"/>
@@ -5790,7 +6200,7 @@
       <c r="N134" s="13"/>
       <c r="O134" s="13"/>
     </row>
-    <row r="135" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13"/>
       <c r="B135" s="32"/>
       <c r="C135" s="15"/>
@@ -5807,7 +6217,7 @@
       <c r="N135" s="13"/>
       <c r="O135" s="13"/>
     </row>
-    <row r="136" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="13"/>
       <c r="B136" s="32"/>
       <c r="C136" s="15"/>
@@ -5824,7 +6234,7 @@
       <c r="N136" s="13"/>
       <c r="O136" s="13"/>
     </row>
-    <row r="137" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13"/>
       <c r="B137" s="32"/>
       <c r="C137" s="15"/>
@@ -5841,7 +6251,7 @@
       <c r="N137" s="13"/>
       <c r="O137" s="13"/>
     </row>
-    <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="13"/>
       <c r="B138" s="32"/>
       <c r="C138" s="15"/>
@@ -5858,7 +6268,7 @@
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
     </row>
-    <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13"/>
       <c r="B139" s="32"/>
       <c r="C139" s="15"/>
@@ -5875,7 +6285,7 @@
       <c r="N139" s="13"/>
       <c r="O139" s="13"/>
     </row>
-    <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="13"/>
       <c r="B140" s="32"/>
       <c r="C140" s="15"/>
@@ -5892,7 +6302,7 @@
       <c r="N140" s="13"/>
       <c r="O140" s="13"/>
     </row>
-    <row r="141" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13"/>
       <c r="B141" s="32"/>
       <c r="C141" s="15"/>
@@ -5909,7 +6319,7 @@
       <c r="N141" s="13"/>
       <c r="O141" s="13"/>
     </row>
-    <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="13"/>
       <c r="B142" s="32"/>
       <c r="C142" s="15"/>
@@ -5926,7 +6336,7 @@
       <c r="N142" s="13"/>
       <c r="O142" s="13"/>
     </row>
-    <row r="143" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13"/>
       <c r="B143" s="32"/>
       <c r="C143" s="15"/>
@@ -5943,7 +6353,7 @@
       <c r="N143" s="13"/>
       <c r="O143" s="13"/>
     </row>
-    <row r="144" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="13"/>
       <c r="B144" s="32"/>
       <c r="C144" s="15"/>
@@ -5960,7 +6370,7 @@
       <c r="N144" s="13"/>
       <c r="O144" s="13"/>
     </row>
-    <row r="145" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13"/>
       <c r="B145" s="32"/>
       <c r="C145" s="15"/>
@@ -5977,7 +6387,7 @@
       <c r="N145" s="13"/>
       <c r="O145" s="13"/>
     </row>
-    <row r="146" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="13"/>
       <c r="B146" s="32"/>
       <c r="C146" s="15"/>
@@ -5994,7 +6404,7 @@
       <c r="N146" s="13"/>
       <c r="O146" s="13"/>
     </row>
-    <row r="147" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="13"/>
       <c r="B147" s="32"/>
       <c r="C147" s="15"/>
@@ -6011,7 +6421,7 @@
       <c r="N147" s="13"/>
       <c r="O147" s="13"/>
     </row>
-    <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="13"/>
       <c r="B148" s="32"/>
       <c r="C148" s="15"/>
@@ -6028,7 +6438,7 @@
       <c r="N148" s="13"/>
       <c r="O148" s="13"/>
     </row>
-    <row r="149" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="13"/>
       <c r="B149" s="32"/>
       <c r="C149" s="15"/>
@@ -6045,7 +6455,7 @@
       <c r="N149" s="13"/>
       <c r="O149" s="13"/>
     </row>
-    <row r="150" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="13"/>
       <c r="B150" s="32"/>
       <c r="C150" s="15"/>
@@ -6062,7 +6472,7 @@
       <c r="N150" s="13"/>
       <c r="O150" s="13"/>
     </row>
-    <row r="151" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="13"/>
       <c r="B151" s="32"/>
       <c r="C151" s="15"/>
@@ -6079,7 +6489,7 @@
       <c r="N151" s="13"/>
       <c r="O151" s="13"/>
     </row>
-    <row r="152" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="13"/>
       <c r="B152" s="32"/>
       <c r="C152" s="15"/>
@@ -6096,7 +6506,7 @@
       <c r="N152" s="13"/>
       <c r="O152" s="13"/>
     </row>
-    <row r="153" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13"/>
       <c r="B153" s="32"/>
       <c r="C153" s="15"/>
@@ -6113,7 +6523,7 @@
       <c r="N153" s="13"/>
       <c r="O153" s="13"/>
     </row>
-    <row r="154" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="13"/>
       <c r="B154" s="32"/>
       <c r="C154" s="15"/>
@@ -6130,7 +6540,7 @@
       <c r="N154" s="13"/>
       <c r="O154" s="13"/>
     </row>
-    <row r="155" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="13"/>
       <c r="B155" s="32"/>
       <c r="C155" s="15"/>
@@ -6147,7 +6557,7 @@
       <c r="N155" s="13"/>
       <c r="O155" s="13"/>
     </row>
-    <row r="156" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="13"/>
       <c r="B156" s="32"/>
       <c r="C156" s="15"/>
@@ -6164,7 +6574,7 @@
       <c r="N156" s="13"/>
       <c r="O156" s="13"/>
     </row>
-    <row r="157" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
       <c r="B157" s="32"/>
       <c r="C157" s="15"/>
@@ -6181,7 +6591,7 @@
       <c r="N157" s="13"/>
       <c r="O157" s="13"/>
     </row>
-    <row r="158" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="13"/>
       <c r="B158" s="32"/>
       <c r="C158" s="15"/>
@@ -6198,7 +6608,7 @@
       <c r="N158" s="13"/>
       <c r="O158" s="13"/>
     </row>
-    <row r="159" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="13"/>
       <c r="B159" s="32"/>
       <c r="C159" s="15"/>
@@ -6215,7 +6625,7 @@
       <c r="N159" s="13"/>
       <c r="O159" s="13"/>
     </row>
-    <row r="160" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="13"/>
       <c r="B160" s="32"/>
       <c r="C160" s="15"/>
@@ -6232,7 +6642,7 @@
       <c r="N160" s="13"/>
       <c r="O160" s="13"/>
     </row>
-    <row r="161" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="13"/>
       <c r="B161" s="32"/>
       <c r="C161" s="15"/>
@@ -6249,7 +6659,7 @@
       <c r="N161" s="13"/>
       <c r="O161" s="13"/>
     </row>
-    <row r="162" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="13"/>
       <c r="B162" s="32"/>
       <c r="C162" s="15"/>
@@ -6266,7 +6676,7 @@
       <c r="N162" s="13"/>
       <c r="O162" s="13"/>
     </row>
-    <row r="163" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="13"/>
       <c r="B163" s="32"/>
       <c r="C163" s="15"/>
@@ -6283,7 +6693,7 @@
       <c r="N163" s="13"/>
       <c r="O163" s="13"/>
     </row>
-    <row r="164" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="13"/>
       <c r="B164" s="32"/>
       <c r="C164" s="15"/>
@@ -6300,7 +6710,7 @@
       <c r="N164" s="13"/>
       <c r="O164" s="13"/>
     </row>
-    <row r="165" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="13"/>
       <c r="B165" s="32"/>
       <c r="C165" s="15"/>
@@ -6317,7 +6727,7 @@
       <c r="N165" s="13"/>
       <c r="O165" s="13"/>
     </row>
-    <row r="166" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="13"/>
       <c r="B166" s="32"/>
       <c r="C166" s="15"/>
@@ -6334,7 +6744,7 @@
       <c r="N166" s="13"/>
       <c r="O166" s="13"/>
     </row>
-    <row r="167" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="13"/>
       <c r="B167" s="32"/>
       <c r="C167" s="15"/>
@@ -6351,7 +6761,7 @@
       <c r="N167" s="13"/>
       <c r="O167" s="13"/>
     </row>
-    <row r="168" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="13"/>
       <c r="B168" s="32"/>
       <c r="C168" s="15"/>
@@ -6368,7 +6778,7 @@
       <c r="N168" s="13"/>
       <c r="O168" s="13"/>
     </row>
-    <row r="169" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="13"/>
       <c r="B169" s="32"/>
       <c r="C169" s="15"/>
@@ -6385,7 +6795,7 @@
       <c r="N169" s="13"/>
       <c r="O169" s="13"/>
     </row>
-    <row r="170" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="13"/>
       <c r="B170" s="32"/>
       <c r="C170" s="15"/>
@@ -6402,7 +6812,7 @@
       <c r="N170" s="13"/>
       <c r="O170" s="13"/>
     </row>
-    <row r="171" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="13"/>
       <c r="B171" s="32"/>
       <c r="C171" s="15"/>
@@ -6419,7 +6829,7 @@
       <c r="N171" s="13"/>
       <c r="O171" s="13"/>
     </row>
-    <row r="172" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="13"/>
       <c r="B172" s="32"/>
       <c r="C172" s="15"/>
@@ -6436,7 +6846,7 @@
       <c r="N172" s="13"/>
       <c r="O172" s="13"/>
     </row>
-    <row r="173" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="13"/>
       <c r="B173" s="32"/>
       <c r="C173" s="15"/>
@@ -6453,7 +6863,7 @@
       <c r="N173" s="13"/>
       <c r="O173" s="13"/>
     </row>
-    <row r="174" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="13"/>
       <c r="B174" s="32"/>
       <c r="C174" s="15"/>
@@ -6470,7 +6880,7 @@
       <c r="N174" s="13"/>
       <c r="O174" s="13"/>
     </row>
-    <row r="175" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="13"/>
       <c r="B175" s="32"/>
       <c r="C175" s="15"/>
@@ -6487,7 +6897,7 @@
       <c r="N175" s="13"/>
       <c r="O175" s="13"/>
     </row>
-    <row r="176" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="13"/>
       <c r="B176" s="32"/>
       <c r="C176" s="15"/>
@@ -6504,7 +6914,7 @@
       <c r="N176" s="13"/>
       <c r="O176" s="13"/>
     </row>
-    <row r="177" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="13"/>
       <c r="B177" s="32"/>
       <c r="C177" s="15"/>
@@ -6521,7 +6931,7 @@
       <c r="N177" s="13"/>
       <c r="O177" s="13"/>
     </row>
-    <row r="178" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="13"/>
       <c r="B178" s="32"/>
       <c r="C178" s="15"/>
@@ -6538,7 +6948,7 @@
       <c r="N178" s="13"/>
       <c r="O178" s="13"/>
     </row>
-    <row r="179" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="13"/>
       <c r="B179" s="32"/>
       <c r="C179" s="15"/>
@@ -6555,7 +6965,7 @@
       <c r="N179" s="13"/>
       <c r="O179" s="13"/>
     </row>
-    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="13"/>
       <c r="B180" s="32"/>
       <c r="C180" s="15"/>
@@ -6572,7 +6982,7 @@
       <c r="N180" s="13"/>
       <c r="O180" s="13"/>
     </row>
-    <row r="181" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="13"/>
       <c r="B181" s="32"/>
       <c r="C181" s="15"/>
@@ -6606,12 +7016,12 @@
       <selection sqref="A1:AI86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="16384" width="8.83203125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="46">
         <v>-4.1496999999999999E-2</v>
       </c>
@@ -6718,7 +7128,7 @@
         <v>1.4052E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="46">
         <v>-3.6965999999999999E-2</v>
       </c>
@@ -6825,7 +7235,7 @@
         <v>1.0598E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="46">
         <v>-3.2236000000000001E-2</v>
       </c>
@@ -6932,7 +7342,7 @@
         <v>8.6110000000000006E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="46">
         <v>-2.8920999999999999E-2</v>
       </c>
@@ -7039,7 +7449,7 @@
         <v>6.476E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="46">
         <v>-2.2893E-2</v>
       </c>
@@ -7146,7 +7556,7 @@
         <v>5.587E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="46">
         <v>-1.9772999999999999E-2</v>
       </c>
@@ -7253,7 +7663,7 @@
         <v>4.4429999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="46">
         <v>-1.7145000000000001E-2</v>
       </c>
@@ -7360,7 +7770,7 @@
         <v>3.6749999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="46">
         <v>-1.5262E-2</v>
       </c>
@@ -7467,7 +7877,7 @@
         <v>3.395E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="46">
         <v>-1.3606999999999999E-2</v>
       </c>
@@ -7574,7 +7984,7 @@
         <v>2.8660000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="46">
         <v>-1.1245E-2</v>
       </c>
@@ -7681,7 +8091,7 @@
         <v>2.7780000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="46">
         <v>-1.0532E-2</v>
       </c>
@@ -7788,7 +8198,7 @@
         <v>2.6199999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="46">
         <v>-9.8919999999999998E-3</v>
       </c>
@@ -7895,7 +8305,7 @@
         <v>2.2460000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="46">
         <v>-8.4910000000000003E-3</v>
       </c>
@@ -8002,7 +8412,7 @@
         <v>2.245E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="46">
         <v>-7.4970000000000002E-3</v>
       </c>
@@ -8109,7 +8519,7 @@
         <v>2.0769999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="46">
         <v>-7.3109999999999998E-3</v>
       </c>
@@ -8216,7 +8626,7 @@
         <v>1.9369999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <v>-6.7759999999999999E-3</v>
       </c>
@@ -8323,7 +8733,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="46">
         <v>-6.2589999999999998E-3</v>
       </c>
@@ -8430,7 +8840,7 @@
         <v>1.8699999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="46">
         <v>-6.6160000000000004E-3</v>
       </c>
@@ -8537,7 +8947,7 @@
         <v>1.668E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="46">
         <v>-6.0990000000000003E-3</v>
       </c>
@@ -8644,7 +9054,7 @@
         <v>1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="46">
         <v>-5.9919999999999999E-3</v>
       </c>
@@ -8751,7 +9161,7 @@
         <v>1.66E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="46">
         <v>-5.9870000000000001E-3</v>
       </c>
@@ -8858,7 +9268,7 @@
         <v>1.4840000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="46">
         <v>-5.8960000000000002E-3</v>
       </c>
@@ -8965,7 +9375,7 @@
         <v>1.549E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="46">
         <v>-5.8040000000000001E-3</v>
       </c>
@@ -9072,7 +9482,7 @@
         <v>1.4989999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="46">
         <v>-5.8320000000000004E-3</v>
       </c>
@@ -9179,7 +9589,7 @@
         <v>1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="46">
         <v>-6.0470000000000003E-3</v>
       </c>
@@ -9286,7 +9696,7 @@
         <v>1.4239999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="46">
         <v>-5.8469999999999998E-3</v>
       </c>
@@ -9393,7 +9803,7 @@
         <v>1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="46">
         <v>-5.8729999999999997E-3</v>
       </c>
@@ -9500,7 +9910,7 @@
         <v>1.315E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="46">
         <v>-5.9449999999999998E-3</v>
       </c>
@@ -9607,7 +10017,7 @@
         <v>1.335E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="46">
         <v>-5.7250000000000001E-3</v>
       </c>
@@ -9714,7 +10124,7 @@
         <v>1.263E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="46">
         <v>-5.7279999999999996E-3</v>
       </c>
@@ -9821,7 +10231,7 @@
         <v>1.2099999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="46">
         <v>-5.5560000000000002E-3</v>
       </c>
@@ -9928,7 +10338,7 @@
         <v>1.206E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="46">
         <v>-5.5170000000000002E-3</v>
       </c>
@@ -10035,7 +10445,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="46">
         <v>-5.7959999999999999E-3</v>
       </c>
@@ -10142,7 +10552,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="46">
         <v>-5.9789999999999999E-3</v>
       </c>
@@ -10249,7 +10659,7 @@
         <v>1.1479999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="46">
         <v>-6.2230000000000002E-3</v>
       </c>
@@ -10356,7 +10766,7 @@
         <v>1.126E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="46">
         <v>-6.6140000000000001E-3</v>
       </c>
@@ -10463,7 +10873,7 @@
         <v>1.0430000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="46">
         <v>-6.966E-3</v>
       </c>
@@ -10570,7 +10980,7 @@
         <v>1.091E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="46">
         <v>-7.26E-3</v>
       </c>
@@ -10677,7 +11087,7 @@
         <v>9.9700000000000006E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="46">
         <v>-7.4400000000000004E-3</v>
       </c>
@@ -10784,7 +11194,7 @@
         <v>9.7499999999999996E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="46">
         <v>-7.4739999999999997E-3</v>
       </c>
@@ -10891,7 +11301,7 @@
         <v>1.0039999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="46">
         <v>-7.4720000000000003E-3</v>
       </c>
@@ -10998,7 +11408,7 @@
         <v>9.7900000000000005E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="46">
         <v>-7.2700000000000004E-3</v>
       </c>
@@ -11105,7 +11515,7 @@
         <v>9.8499999999999998E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="46">
         <v>-6.9439999999999997E-3</v>
       </c>
@@ -11212,7 +11622,7 @@
         <v>9.8299999999999993E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="46">
         <v>-6.4799999999999996E-3</v>
       </c>
@@ -11319,7 +11729,7 @@
         <v>1.01E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="46">
         <v>-6.084E-3</v>
       </c>
@@ -11426,7 +11836,7 @@
         <v>1.0219999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="46">
         <v>-5.751E-3</v>
       </c>
@@ -11533,7 +11943,7 @@
         <v>1.034E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="46">
         <v>-4.9690000000000003E-3</v>
       </c>
@@ -11640,7 +12050,7 @@
         <v>1.188E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="46">
         <v>-4.3880000000000004E-3</v>
       </c>
@@ -11747,7 +12157,7 @@
         <v>1.1839999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="46">
         <v>-4.0590000000000001E-3</v>
       </c>
@@ -11854,7 +12264,7 @@
         <v>1.155E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="46">
         <v>-3.8800000000000002E-3</v>
       </c>
@@ -11961,7 +12371,7 @@
         <v>1.191E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="46">
         <v>-3.81E-3</v>
       </c>
@@ -12068,7 +12478,7 @@
         <v>1.158E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="46">
         <v>-3.728E-3</v>
       </c>
@@ -12175,7 +12585,7 @@
         <v>1.109E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="46">
         <v>-3.7109999999999999E-3</v>
       </c>
@@ -12282,7 +12692,7 @@
         <v>1.1640000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="46">
         <v>-3.9550000000000002E-3</v>
       </c>
@@ -12389,7 +12799,7 @@
         <v>1.1850000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="46">
         <v>-4.1770000000000002E-3</v>
       </c>
@@ -12496,7 +12906,7 @@
         <v>1.139E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="46">
         <v>-4.3730000000000002E-3</v>
       </c>
@@ -12603,7 +13013,7 @@
         <v>1.0989999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="46">
         <v>-4.4060000000000002E-3</v>
       </c>
@@ -12710,7 +13120,7 @@
         <v>1.1770000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="46">
         <v>-4.4850000000000003E-3</v>
       </c>
@@ -12817,7 +13227,7 @@
         <v>1.1349999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="46">
         <v>-4.5360000000000001E-3</v>
       </c>
@@ -12924,7 +13334,7 @@
         <v>1.1689999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="46">
         <v>-4.594E-3</v>
       </c>
@@ -13031,7 +13441,7 @@
         <v>1.206E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="46">
         <v>-4.6849999999999999E-3</v>
       </c>
@@ -13138,7 +13548,7 @@
         <v>1.163E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="46">
         <v>-4.6189999999999998E-3</v>
       </c>
@@ -13245,7 +13655,7 @@
         <v>1.1659999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="46">
         <v>-4.6719999999999999E-3</v>
       </c>
@@ -13352,7 +13762,7 @@
         <v>1.2110000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="46">
         <v>-4.6519999999999999E-3</v>
       </c>
@@ -13459,7 +13869,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="46">
         <v>-4.6449999999999998E-3</v>
       </c>
@@ -13566,7 +13976,7 @@
         <v>1.2279999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="46">
         <v>-4.7340000000000004E-3</v>
       </c>
@@ -13673,7 +14083,7 @@
         <v>1.155E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="46">
         <v>-4.7460000000000002E-3</v>
       </c>
@@ -13780,7 +14190,7 @@
         <v>1.1299999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="46">
         <v>-4.6709999999999998E-3</v>
       </c>
@@ -13887,7 +14297,7 @@
         <v>1.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="46">
         <v>-4.6239999999999996E-3</v>
       </c>
@@ -13994,7 +14404,7 @@
         <v>1.06E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="46">
         <v>-4.6439999999999997E-3</v>
       </c>
@@ -14101,7 +14511,7 @@
         <v>1.018E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="46">
         <v>-4.646E-3</v>
       </c>
@@ -14208,7 +14618,7 @@
         <v>9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="46">
         <v>-4.823E-3</v>
       </c>
@@ -14315,7 +14725,7 @@
         <v>8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="46">
         <v>-5.084E-3</v>
       </c>
@@ -14422,7 +14832,7 @@
         <v>7.7999999999999999E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="46">
         <v>-5.4739999999999997E-3</v>
       </c>
@@ -14529,7 +14939,7 @@
         <v>7.0299999999999996E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="46">
         <v>-5.5339999999999999E-3</v>
       </c>
@@ -14636,7 +15046,7 @@
         <v>6.7199999999999996E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="46">
         <v>-5.6950000000000004E-3</v>
       </c>
@@ -14743,7 +15153,7 @@
         <v>6.7500000000000004E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="46">
         <v>-5.8209999999999998E-3</v>
       </c>
@@ -14850,7 +15260,7 @@
         <v>6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="46">
         <v>-6.0049999999999999E-3</v>
       </c>
@@ -14957,7 +15367,7 @@
         <v>6.7500000000000004E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="46">
         <v>-6.1650000000000003E-3</v>
       </c>
@@ -15064,7 +15474,7 @@
         <v>7.4700000000000005E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="46">
         <v>-6.3810000000000004E-3</v>
       </c>
@@ -15171,7 +15581,7 @@
         <v>7.7099999999999998E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="46">
         <v>-6.4149999999999997E-3</v>
       </c>
@@ -15278,7 +15688,7 @@
         <v>8.0800000000000002E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="46">
         <v>-6.4559999999999999E-3</v>
       </c>
@@ -15385,7 +15795,7 @@
         <v>9.5600000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="46">
         <v>-6.4770000000000001E-3</v>
       </c>
@@ -15492,7 +15902,7 @@
         <v>9.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="46">
         <v>-6.515E-3</v>
       </c>
@@ -15599,7 +16009,7 @@
         <v>1.0059999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="46">
         <v>-7.1289999999999999E-3</v>
       </c>
@@ -15706,7 +16116,7 @@
         <v>1.103E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="46">
         <v>-8.1860000000000006E-3</v>
       </c>
@@ -15826,12 +16236,12 @@
       <selection sqref="A1:AI86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="16384" width="8.83203125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="46">
         <v>3.0969E-2</v>
       </c>
@@ -15938,7 +16348,7 @@
         <v>-2.7612999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="46">
         <v>2.4216000000000001E-2</v>
       </c>
@@ -16045,7 +16455,7 @@
         <v>-2.5562999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="46">
         <v>1.8102E-2</v>
       </c>
@@ -16152,7 +16562,7 @@
         <v>-2.2098E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="46">
         <v>1.4449E-2</v>
       </c>
@@ -16259,7 +16669,7 @@
         <v>-2.0126000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="46">
         <v>1.1445E-2</v>
       </c>
@@ -16366,7 +16776,7 @@
         <v>-1.7250000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="46">
         <v>8.8990000000000007E-3</v>
       </c>
@@ -16473,7 +16883,7 @@
         <v>-1.5932000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="46">
         <v>6.9839999999999998E-3</v>
       </c>
@@ -16580,7 +16990,7 @@
         <v>-1.3788E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="46">
         <v>5.934E-3</v>
       </c>
@@ -16687,7 +17097,7 @@
         <v>-1.2596E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="46">
         <v>4.5830000000000003E-3</v>
       </c>
@@ -16794,7 +17204,7 @@
         <v>-1.1445E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="46">
         <v>3.1570000000000001E-3</v>
       </c>
@@ -16901,7 +17311,7 @@
         <v>-1.0121E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="46">
         <v>2.8730000000000001E-3</v>
       </c>
@@ -17008,7 +17418,7 @@
         <v>-9.6050000000000007E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="46">
         <v>2.0600000000000002E-3</v>
       </c>
@@ -17115,7 +17525,7 @@
         <v>-8.6680000000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="46">
         <v>1.683E-3</v>
       </c>
@@ -17222,7 +17632,7 @@
         <v>-7.9850000000000008E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="46">
         <v>1.5120000000000001E-3</v>
       </c>
@@ -17329,7 +17739,7 @@
         <v>-7.2529999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="46">
         <v>7.3300000000000004E-4</v>
       </c>
@@ -17436,7 +17846,7 @@
         <v>-7.0600000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <v>-2.0599999999999999E-4</v>
       </c>
@@ -17543,7 +17953,7 @@
         <v>-6.6709999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="46">
         <v>-2.6400000000000002E-4</v>
       </c>
@@ -17650,7 +18060,7 @@
         <v>-6.3049999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="46">
         <v>-6.9399999999999996E-4</v>
       </c>
@@ -17757,7 +18167,7 @@
         <v>-6.0150000000000004E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="46">
         <v>-1.3439999999999999E-3</v>
       </c>
@@ -17864,7 +18274,7 @@
         <v>-5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="46">
         <v>-1.758E-3</v>
       </c>
@@ -17971,7 +18381,7 @@
         <v>-5.5849999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="46">
         <v>-2.274E-3</v>
       </c>
@@ -18078,7 +18488,7 @@
         <v>-5.352E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="46">
         <v>-2.5240000000000002E-3</v>
       </c>
@@ -18185,7 +18595,7 @@
         <v>-5.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="46">
         <v>-2.532E-3</v>
       </c>
@@ -18292,7 +18702,7 @@
         <v>-5.0699999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="46">
         <v>-3.0330000000000001E-3</v>
       </c>
@@ -18399,7 +18809,7 @@
         <v>-5.11E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="46">
         <v>-3.2190000000000001E-3</v>
       </c>
@@ -18506,7 +18916,7 @@
         <v>-4.9459999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="46">
         <v>-3.0850000000000001E-3</v>
       </c>
@@ -18613,7 +19023,7 @@
         <v>-4.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="46">
         <v>-2.9169999999999999E-3</v>
       </c>
@@ -18720,7 +19130,7 @@
         <v>-4.9220000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="46">
         <v>-3.2759999999999998E-3</v>
       </c>
@@ -18827,7 +19237,7 @@
         <v>-4.9439999999999996E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="46">
         <v>-2.5509999999999999E-3</v>
       </c>
@@ -18934,7 +19344,7 @@
         <v>-4.8640000000000003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="46">
         <v>-2.3519999999999999E-3</v>
       </c>
@@ -19041,7 +19451,7 @@
         <v>-4.9639999999999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="46">
         <v>-2.8119999999999998E-3</v>
       </c>
@@ -19148,7 +19558,7 @@
         <v>-5.0239999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="46">
         <v>-1.7489999999999999E-3</v>
       </c>
@@ -19255,7 +19665,7 @@
         <v>-5.0419999999999996E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="46">
         <v>-1.9400000000000001E-3</v>
       </c>
@@ -19362,7 +19772,7 @@
         <v>-5.1739999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="46">
         <v>-1.7949999999999999E-3</v>
       </c>
@@ -19469,7 +19879,7 @@
         <v>-5.1469999999999997E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="46">
         <v>-1.934E-3</v>
       </c>
@@ -19576,7 +19986,7 @@
         <v>-5.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="46">
         <v>-2.3809999999999999E-3</v>
       </c>
@@ -19683,7 +20093,7 @@
         <v>-5.208E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="46">
         <v>-2.6380000000000002E-3</v>
       </c>
@@ -19790,7 +20200,7 @@
         <v>-5.4209999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="46">
         <v>-2.7850000000000001E-3</v>
       </c>
@@ -19897,7 +20307,7 @@
         <v>-5.4349999999999997E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="46">
         <v>-3.3300000000000001E-3</v>
       </c>
@@ -20004,7 +20414,7 @@
         <v>-5.378E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="46">
         <v>-2.7590000000000002E-3</v>
       </c>
@@ -20111,7 +20521,7 @@
         <v>-5.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="46">
         <v>-2.6419999999999998E-3</v>
       </c>
@@ -20218,7 +20628,7 @@
         <v>-5.3680000000000004E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="46">
         <v>-1.9959999999999999E-3</v>
       </c>
@@ -20325,7 +20735,7 @@
         <v>-5.2009999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="46">
         <v>-9.19E-4</v>
       </c>
@@ -20432,7 +20842,7 @@
         <v>-5.1120000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="46">
         <v>6.2000000000000003E-5</v>
       </c>
@@ -20539,7 +20949,7 @@
         <v>-4.8479999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="46">
         <v>1.2099999999999999E-3</v>
       </c>
@@ -20646,7 +21056,7 @@
         <v>-4.6169999999999996E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="46">
         <v>2.735E-3</v>
       </c>
@@ -20753,7 +21163,7 @@
         <v>-4.4679999999999997E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="46">
         <v>4.2329999999999998E-3</v>
       </c>
@@ -20860,7 +21270,7 @@
         <v>-3.3119999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="46">
         <v>5.0419999999999996E-3</v>
       </c>
@@ -20967,7 +21377,7 @@
         <v>-3.2919999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="46">
         <v>5.757E-3</v>
       </c>
@@ -21074,7 +21484,7 @@
         <v>-3.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="46">
         <v>6.1139999999999996E-3</v>
       </c>
@@ -21181,7 +21591,7 @@
         <v>-3.0860000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="46">
         <v>6.2560000000000003E-3</v>
       </c>
@@ -21288,7 +21698,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="46">
         <v>5.9459999999999999E-3</v>
       </c>
@@ -21395,7 +21805,7 @@
         <v>-2.934E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="46">
         <v>5.6820000000000004E-3</v>
       </c>
@@ -21502,7 +21912,7 @@
         <v>-2.9099999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="46">
         <v>5.3819999999999996E-3</v>
       </c>
@@ -21609,7 +22019,7 @@
         <v>-2.8310000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="46">
         <v>5.2769999999999996E-3</v>
       </c>
@@ -21716,7 +22126,7 @@
         <v>-2.8180000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="46">
         <v>5.1209999999999997E-3</v>
       </c>
@@ -21823,7 +22233,7 @@
         <v>-2.7139999999999998E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="46">
         <v>4.9760000000000004E-3</v>
       </c>
@@ -21930,7 +22340,7 @@
         <v>-2.7339999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="46">
         <v>4.9040000000000004E-3</v>
       </c>
@@ -22037,7 +22447,7 @@
         <v>-2.797E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="46">
         <v>5.0080000000000003E-3</v>
       </c>
@@ -22144,7 +22554,7 @@
         <v>-2.6819999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="46">
         <v>5.0569999999999999E-3</v>
       </c>
@@ -22251,7 +22661,7 @@
         <v>-2.7060000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="46">
         <v>5.1879999999999999E-3</v>
       </c>
@@ -22358,7 +22768,7 @@
         <v>-2.6389999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="46">
         <v>5.4000000000000003E-3</v>
       </c>
@@ -22465,7 +22875,7 @@
         <v>-2.6649999999999998E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="46">
         <v>5.9179999999999996E-3</v>
       </c>
@@ -22572,7 +22982,7 @@
         <v>-2.6740000000000002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="46">
         <v>6.4559999999999999E-3</v>
       </c>
@@ -22679,7 +23089,7 @@
         <v>-2.6670000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="46">
         <v>6.829E-3</v>
       </c>
@@ -22786,7 +23196,7 @@
         <v>-2.7309999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="46">
         <v>7.0239999999999999E-3</v>
       </c>
@@ -22893,7 +23303,7 @@
         <v>-2.761E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="46">
         <v>7.541E-3</v>
       </c>
@@ -23000,7 +23410,7 @@
         <v>-2.6770000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="46">
         <v>7.9749999999999995E-3</v>
       </c>
@@ -23107,7 +23517,7 @@
         <v>-2.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="46">
         <v>7.8700000000000003E-3</v>
       </c>
@@ -23214,7 +23624,7 @@
         <v>-2.8289999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="46">
         <v>8.2439999999999996E-3</v>
       </c>
@@ -23321,7 +23731,7 @@
         <v>-2.8479999999999998E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="46">
         <v>8.2609999999999992E-3</v>
       </c>
@@ -23428,7 +23838,7 @@
         <v>-3.0899999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="46">
         <v>8.2229999999999994E-3</v>
       </c>
@@ -23535,7 +23945,7 @@
         <v>-3.0249999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="46">
         <v>8.0300000000000007E-3</v>
       </c>
@@ -23642,7 +24052,7 @@
         <v>-3.1540000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="46">
         <v>7.5820000000000002E-3</v>
       </c>
@@ -23749,7 +24159,7 @@
         <v>-3.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="46">
         <v>7.5969999999999996E-3</v>
       </c>
@@ -23856,7 +24266,7 @@
         <v>-3.2390000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="46">
         <v>7.0060000000000001E-3</v>
       </c>
@@ -23963,7 +24373,7 @@
         <v>-3.4880000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="46">
         <v>6.9649999999999998E-3</v>
       </c>
@@ -24070,7 +24480,7 @@
         <v>-3.483E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="46">
         <v>6.6769999999999998E-3</v>
       </c>
@@ -24177,7 +24587,7 @@
         <v>-3.4780000000000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="46">
         <v>6.6779999999999999E-3</v>
       </c>
@@ -24284,7 +24694,7 @@
         <v>-3.5699999999999998E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="46">
         <v>7.0280000000000004E-3</v>
       </c>
@@ -24391,7 +24801,7 @@
         <v>-3.5309999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="46">
         <v>7.4400000000000004E-3</v>
       </c>
@@ -24498,7 +24908,7 @@
         <v>-3.4090000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="46">
         <v>7.489E-3</v>
       </c>
@@ -24605,7 +25015,7 @@
         <v>-3.539E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="46">
         <v>8.0680000000000005E-3</v>
       </c>
@@ -24712,7 +25122,7 @@
         <v>-3.3760000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="46">
         <v>7.8980000000000005E-3</v>
       </c>
@@ -24819,7 +25229,7 @@
         <v>-3.2980000000000002E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="46">
         <v>7.2389999999999998E-3</v>
       </c>
@@ -24926,7 +25336,7 @@
         <v>-3.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="46">
         <v>6.0270000000000002E-3</v>
       </c>
